--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,27 +445,53 @@
         <v>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nulla vitae elit libero, a pharetra augue.</v>
       </c>
       <c r="F2" t="str">
-        <v>Hackathon Solution title</v>
+        <v>Scale xyzProtocol</v>
       </c>
       <c r="G2" t="str">
-        <v>https://media.istockphoto.com/id/1281066221/vector/hackathon-doodle-set.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=9YC34PkEqw51ovE8aGPtVHMn_ZAYuerxfJT-Hr-RM-I=</v>
+        <v>https://www.dqindia.com/wp-content/uploads/2021/06/blockchain-hackathon.jpg</v>
       </c>
       <c r="H2" t="str">
         <v>Hackathon</v>
       </c>
       <c r="I2" t="str">
-        <v>Team Name</v>
+        <v>VoidEnigma</v>
       </c>
       <c r="J2" t="str">
         <v>https://www.youtube.com/</v>
       </c>
       <c r="K2" t="str">
+        <v>https://www.github.com/</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>user1,user2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nulla vitae elit libero, a pharetra augue.</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Hackathon Solution title</v>
+      </c>
+      <c r="G3" t="str">
+        <v>https://media.istockphoto.com/id/1281066221/vector/hackathon-doodle-set.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=9YC34PkEqw51ovE8aGPtVHMn_ZAYuerxfJT-Hr-RM-I=</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Hackathon</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Team Name</v>
+      </c>
+      <c r="J3" t="str">
+        <v>https://www.youtube.com/</v>
+      </c>
+      <c r="K3" t="str">
         <v xml:space="preserve">https://www.github.com/ </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>